--- a/Test Cases Final/TC- 2 Register.xlsx
+++ b/Test Cases Final/TC- 2 Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cror\Desktop\Test Cases\Test Cases Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6186212-17F5-43D5-A752-833042078096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2699D7C7-BE36-4F02-8728-C3705B25DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="159">
   <si>
     <t>COMMENTS</t>
   </si>
@@ -495,16 +495,10 @@
     <t>60</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>Username cannot be composed of only numbers should be displayed</t>
+  </si>
+  <si>
+    <t>Entering valid username</t>
   </si>
 </sst>
 </file>
@@ -753,57 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,6 +793,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1194,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,85 +1211,85 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="7">
+      <c r="C5" s="40"/>
+      <c r="D5" s="24">
         <v>44609</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -1304,47 +1298,47 @@
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -1376,10 +1370,10 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="21">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1400,16 +1394,16 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38">
+      <c r="B12" s="21">
         <v>2</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1424,10 +1418,10 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
+      <c r="B13" s="21">
         <v>3</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1448,10 +1442,10 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="38">
+      <c r="B14" s="21">
         <v>4</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1472,10 +1466,10 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38">
+      <c r="B15" s="21">
         <v>5</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1496,10 +1490,10 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="38">
+      <c r="B16" s="21">
         <v>6</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1520,10 +1514,10 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="38">
+      <c r="B17" s="21">
         <v>7</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1544,10 +1538,10 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="38">
+      <c r="B18" s="21">
         <v>8</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1568,10 +1562,10 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="38">
+      <c r="B19" s="21">
         <v>9</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1592,10 +1586,10 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="38">
+      <c r="B20" s="21">
         <v>10</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1616,10 +1610,10 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="38">
+      <c r="B21" s="21">
         <v>11</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1640,10 +1634,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="38">
+      <c r="B22" s="21">
         <v>12</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1664,16 +1658,16 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="38">
+      <c r="B23" s="21">
         <v>13</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1688,10 +1682,10 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="38">
+      <c r="B24" s="21">
         <v>14</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1712,10 +1706,10 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="38">
+      <c r="B25" s="21">
         <v>15</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1736,16 +1730,16 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="38">
+      <c r="B26" s="21">
         <v>16</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -1760,10 +1754,10 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38">
-        <v>17</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="21">
+        <v>17</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1775,7 +1769,7 @@
       <c r="F27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -1784,22 +1778,22 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="38">
+      <c r="B28" s="21">
         <v>18</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -1808,10 +1802,10 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="38">
+      <c r="B29" s="21">
         <v>19</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -1823,7 +1817,7 @@
       <c r="F29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -1832,10 +1826,10 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="38">
+      <c r="B30" s="21">
         <v>20</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1847,7 +1841,7 @@
       <c r="F30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -1856,10 +1850,10 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="38">
+      <c r="B31" s="21">
         <v>21</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1871,7 +1865,7 @@
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -1880,10 +1874,10 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="38">
-        <v>22</v>
-      </c>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="21">
+        <v>22</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1895,7 +1889,7 @@
       <c r="F32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H32" s="6" t="s">
@@ -1904,10 +1898,10 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="38">
+      <c r="B33" s="21">
         <v>23</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -1919,7 +1913,7 @@
       <c r="F33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="18" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -1928,10 +1922,10 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="38">
+      <c r="B34" s="21">
         <v>24</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -1943,7 +1937,7 @@
       <c r="F34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="19" t="s">
         <v>85</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -1952,10 +1946,10 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="38">
+      <c r="B35" s="21">
         <v>25</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -1967,7 +1961,7 @@
       <c r="F35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -1976,10 +1970,10 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="38">
+      <c r="B36" s="21">
         <v>26</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -1991,7 +1985,7 @@
       <c r="F36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="18" t="s">
         <v>49</v>
       </c>
       <c r="H36" s="6" t="s">
@@ -2000,10 +1994,10 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="38">
+      <c r="B37" s="21">
         <v>27</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -2015,7 +2009,7 @@
       <c r="F37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H37" s="6" t="s">
@@ -2024,10 +2018,10 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="38">
+      <c r="B38" s="21">
         <v>28</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -2039,7 +2033,7 @@
       <c r="F38" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="18" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="6" t="s">
@@ -2048,22 +2042,22 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="38">
+      <c r="B39" s="21">
         <v>29</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -2072,10 +2066,10 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="38">
+      <c r="B40" s="21">
         <v>30</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -2087,7 +2081,7 @@
       <c r="F40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -2096,10 +2090,10 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="38">
+      <c r="B41" s="21">
         <v>31</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -2111,7 +2105,7 @@
       <c r="F41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -2120,22 +2114,22 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="38">
+      <c r="B42" s="21">
         <v>32</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="18" t="s">
         <v>53</v>
       </c>
       <c r="H42" s="6" t="s">
@@ -2144,16 +2138,16 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
@@ -2182,10 +2176,10 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -2206,16 +2200,16 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -2230,10 +2224,10 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -2254,10 +2248,10 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -2278,10 +2272,10 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -2302,10 +2296,10 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -2326,10 +2320,10 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -2350,10 +2344,10 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -2374,10 +2368,10 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -2398,10 +2392,10 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -2422,10 +2416,10 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -2446,10 +2440,10 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -2470,16 +2464,16 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="13" t="s">
         <v>73</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -2494,10 +2488,10 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="17" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2518,16 +2512,16 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="13" t="s">
         <v>77</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -2542,16 +2536,16 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="34" t="s">
-        <v>60</v>
+      <c r="C60" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -2566,10 +2560,10 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -2579,10 +2573,10 @@
         <v>33</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>38</v>
+        <v>157</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>22</v>
@@ -2590,23 +2584,23 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>22</v>
@@ -2614,10 +2608,10 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -2627,10 +2621,10 @@
         <v>42</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>22</v>
@@ -2638,10 +2632,10 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -2651,10 +2645,10 @@
         <v>40</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>22</v>
@@ -2662,10 +2656,10 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -2675,10 +2669,10 @@
         <v>44</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>22</v>
@@ -2686,10 +2680,10 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -2699,10 +2693,10 @@
         <v>47</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>22</v>
@@ -2710,10 +2704,10 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -2723,10 +2717,10 @@
         <v>24</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>22</v>
@@ -2734,10 +2728,10 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2749,7 +2743,7 @@
       <c r="F68" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G68" s="19" t="s">
         <v>85</v>
       </c>
       <c r="H68" s="6" t="s">
@@ -2758,10 +2752,10 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -2771,10 +2765,10 @@
         <v>25</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>22</v>
@@ -2782,10 +2776,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -2795,10 +2789,10 @@
         <v>26</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>22</v>
@@ -2806,10 +2800,10 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -2819,10 +2813,10 @@
         <v>27</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>22</v>
@@ -2830,10 +2824,10 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -2843,10 +2837,10 @@
         <v>28</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>22</v>
@@ -2854,23 +2848,23 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>54</v>
+      <c r="B73" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="25" t="s">
-        <v>55</v>
+      <c r="E73" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>22</v>
@@ -2878,71 +2872,71 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>60</v>
-      </c>
       <c r="D76" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="25" t="s">
-        <v>51</v>
+      <c r="E76" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>22</v>
@@ -2950,16 +2944,16 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
@@ -2988,10 +2982,10 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="38">
+      <c r="B79" s="21">
         <v>65</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -3012,16 +3006,16 @@
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="38">
+      <c r="B80" s="21">
         <v>66</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -3036,10 +3030,10 @@
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="38">
+      <c r="B81" s="21">
         <v>67</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -3060,10 +3054,10 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="38">
+      <c r="B82" s="21">
         <v>68</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -3084,10 +3078,10 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="38">
+      <c r="B83" s="21">
         <v>69</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -3108,10 +3102,10 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B84" s="38">
+      <c r="B84" s="21">
         <v>70</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -3120,10 +3114,10 @@
       <c r="E84" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="32" t="s">
+      <c r="F84" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H84" s="6" t="s">
@@ -3132,10 +3126,10 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="38">
+      <c r="B85" s="21">
         <v>71</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -3156,10 +3150,10 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="38">
+      <c r="B86" s="21">
         <v>72</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D86" s="6" t="s">
@@ -3180,10 +3174,10 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="38">
+      <c r="B87" s="21">
         <v>73</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -3204,10 +3198,10 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="38">
+      <c r="B88" s="21">
         <v>74</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -3228,10 +3222,10 @@
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="38">
+      <c r="B89" s="21">
         <v>75</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="6" t="s">
@@ -3252,10 +3246,10 @@
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B90" s="38">
+      <c r="B90" s="21">
         <v>76</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -3264,10 +3258,10 @@
       <c r="E90" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" s="32" t="s">
+      <c r="F90" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H90" s="6" t="s">
@@ -3276,22 +3270,22 @@
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="2:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="38">
+      <c r="B91" s="21">
         <v>77</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F91" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91" s="32" t="s">
+      <c r="F91" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G91" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H91" s="6" t="s">
@@ -3300,10 +3294,10 @@
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B92" s="38">
+      <c r="B92" s="21">
         <v>78</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -3312,10 +3306,10 @@
       <c r="E92" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" s="32" t="s">
+      <c r="F92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H92" s="6" t="s">
@@ -3324,22 +3318,22 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B93" s="38">
+      <c r="B93" s="21">
         <v>79</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F93" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G93" s="32" t="s">
+      <c r="F93" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H93" s="6" t="s">
@@ -3348,22 +3342,22 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B94" s="38">
+      <c r="B94" s="21">
         <v>80</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F94" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G94" s="32" t="s">
+      <c r="F94" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H94" s="6" t="s">
@@ -3372,22 +3366,22 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B95" s="38">
-        <v>81</v>
-      </c>
-      <c r="C95" s="34" t="s">
+      <c r="B95" s="21">
+        <v>81</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F95" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G95" s="32" t="s">
+      <c r="F95" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G95" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H95" s="6" t="s">
@@ -3396,22 +3390,22 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B96" s="38">
+      <c r="B96" s="21">
         <v>82</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F96" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G96" s="32" t="s">
+      <c r="F96" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H96" s="6" t="s">
@@ -3420,22 +3414,22 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B97" s="38">
+      <c r="B97" s="21">
         <v>83</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F97" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G97" s="32" t="s">
+      <c r="F97" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G97" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H97" s="6" t="s">
@@ -3444,22 +3438,22 @@
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B98" s="38">
+      <c r="B98" s="21">
         <v>84</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F98" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="32" t="s">
+      <c r="F98" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G98" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H98" s="6" t="s">
@@ -3468,22 +3462,22 @@
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B99" s="38">
+      <c r="B99" s="21">
         <v>85</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F99" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99" s="32" t="s">
+      <c r="F99" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H99" s="6" t="s">
@@ -3492,22 +3486,22 @@
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B100" s="38">
+      <c r="B100" s="21">
         <v>86</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="E100" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G100" s="32" t="s">
+      <c r="F100" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H100" s="6" t="s">
@@ -3516,22 +3510,22 @@
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="38">
+      <c r="B101" s="21">
         <v>87</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="17" t="s">
         <v>116</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F101" s="32" t="s">
+      <c r="F101" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G101" s="32" t="s">
+      <c r="G101" s="15" t="s">
         <v>119</v>
       </c>
       <c r="H101" s="6" t="s">
@@ -3540,10 +3534,10 @@
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="38">
+      <c r="B102" s="21">
         <v>88</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -3555,7 +3549,7 @@
       <c r="F102" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G102" s="35" t="s">
+      <c r="G102" s="18" t="s">
         <v>87</v>
       </c>
       <c r="H102" s="6" t="s">
@@ -3564,22 +3558,22 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="38">
+      <c r="B103" s="21">
         <v>89</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="G103" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H103" s="6" t="s">
@@ -3588,14 +3582,14 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="38">
+      <c r="B104" s="21">
         <v>90</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>42</v>
@@ -3603,7 +3597,7 @@
       <c r="F104" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G104" s="35" t="s">
+      <c r="G104" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H104" s="6" t="s">
@@ -3612,14 +3606,14 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="38">
+      <c r="B105" s="21">
         <v>91</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>90</v>
@@ -3627,7 +3621,7 @@
       <c r="F105" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G105" s="35" t="s">
+      <c r="G105" s="18" t="s">
         <v>88</v>
       </c>
       <c r="H105" s="6" t="s">
@@ -3636,14 +3630,14 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="38">
-        <v>92</v>
-      </c>
-      <c r="C106" s="34" t="s">
+      <c r="B106" s="21">
+        <v>92</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>44</v>
@@ -3651,7 +3645,7 @@
       <c r="F106" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G106" s="35" t="s">
+      <c r="G106" s="18" t="s">
         <v>91</v>
       </c>
       <c r="H106" s="6" t="s">
@@ -3660,22 +3654,22 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B107" s="38">
+      <c r="B107" s="21">
         <v>93</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F107" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G107" s="37" t="s">
+      <c r="F107" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G107" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H107" s="6" t="s">
@@ -3684,14 +3678,14 @@
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="38">
+      <c r="B108" s="21">
         <v>94</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>24</v>
@@ -3699,7 +3693,7 @@
       <c r="F108" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G108" s="35" t="s">
+      <c r="G108" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H108" s="6" t="s">
@@ -3708,14 +3702,14 @@
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="38">
+      <c r="B109" s="21">
         <v>95</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
@@ -3723,7 +3717,7 @@
       <c r="F109" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G109" s="35" t="s">
+      <c r="G109" s="18" t="s">
         <v>85</v>
       </c>
       <c r="H109" s="6" t="s">
@@ -3732,14 +3726,14 @@
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="38">
+      <c r="B110" s="21">
         <v>96</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E110" t="s">
         <v>25</v>
@@ -3747,7 +3741,7 @@
       <c r="F110" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G110" s="35" t="s">
+      <c r="G110" s="18" t="s">
         <v>91</v>
       </c>
       <c r="H110" s="6" t="s">
@@ -3756,14 +3750,14 @@
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="38">
+      <c r="B111" s="21">
         <v>97</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>26</v>
@@ -3771,7 +3765,7 @@
       <c r="F111" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G111" s="35" t="s">
+      <c r="G111" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H111" s="6" t="s">
@@ -3780,14 +3774,14 @@
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="38">
+      <c r="B112" s="21">
         <v>98</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>27</v>
@@ -3795,7 +3789,7 @@
       <c r="F112" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G112" s="35" t="s">
+      <c r="G112" s="18" t="s">
         <v>87</v>
       </c>
       <c r="H112" s="6" t="s">
@@ -3804,22 +3798,22 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B113" s="38">
+      <c r="B113" s="21">
         <v>99</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F113" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G113" s="37" t="s">
+      <c r="F113" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G113" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H113" s="6" t="s">
@@ -3828,22 +3822,22 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B114" s="38">
+      <c r="B114" s="21">
         <v>100</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F114" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G114" s="37" t="s">
+      <c r="F114" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H114" s="6" t="s">
@@ -3852,22 +3846,22 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B115" s="38">
+      <c r="B115" s="21">
         <v>101</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C115" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F115" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G115" s="37" t="s">
+      <c r="F115" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G115" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H115" s="6" t="s">
@@ -3876,22 +3870,22 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B116" s="38">
+      <c r="B116" s="21">
         <v>102</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C116" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F116" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G116" s="37" t="s">
+      <c r="F116" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G116" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H116" s="6" t="s">
@@ -3900,22 +3894,22 @@
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B117" s="38">
+      <c r="B117" s="21">
         <v>103</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F117" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G117" s="37" t="s">
+      <c r="F117" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G117" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H117" s="6" t="s">
@@ -3924,22 +3918,22 @@
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B118" s="38">
+      <c r="B118" s="21">
         <v>104</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C118" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E118" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F118" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G118" s="37" t="s">
+      <c r="F118" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G118" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H118" s="6" t="s">
@@ -3948,22 +3942,22 @@
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B119" s="38">
+      <c r="B119" s="21">
         <v>105</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F119" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G119" s="37" t="s">
+      <c r="F119" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G119" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H119" s="6" t="s">
@@ -3972,22 +3966,22 @@
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B120" s="38">
+      <c r="B120" s="21">
         <v>106</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E120" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F120" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G120" s="37" t="s">
+      <c r="F120" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G120" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H120" s="6" t="s">
@@ -3996,22 +3990,22 @@
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B121" s="38">
+      <c r="B121" s="21">
         <v>107</v>
       </c>
-      <c r="C121" s="34" t="s">
+      <c r="C121" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F121" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G121" s="37" t="s">
+      <c r="F121" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G121" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H121" s="6" t="s">
@@ -4020,22 +4014,22 @@
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B122" s="38">
+      <c r="B122" s="21">
         <v>108</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F122" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G122" s="37" t="s">
+      <c r="F122" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G122" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H122" s="6" t="s">
@@ -4044,22 +4038,22 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B123" s="38">
+      <c r="B123" s="21">
         <v>109</v>
       </c>
-      <c r="C123" s="34" t="s">
+      <c r="C123" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="E123" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F123" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G123" s="37" t="s">
+      <c r="F123" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G123" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H123" s="6" t="s">
@@ -4068,16 +4062,16 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B124" s="27"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="29" t="s">
+      <c r="B124" s="10"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
@@ -4106,16 +4100,16 @@
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="39" t="s">
+      <c r="B126" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E126" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -4130,10 +4124,10 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C127" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -4154,7 +4148,7 @@
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="40"/>
+      <c r="B128" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
